--- a/biology/Botanique/Jardin_Martha-Desrumaux/Jardin_Martha-Desrumaux.xlsx
+++ b/biology/Botanique/Jardin_Martha-Desrumaux/Jardin_Martha-Desrumaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Martha-Desrumaux est un espace vert situé dans l'ancienne caserne de Reuilly, accessible via le passage Emma-Calvé et le passage Marie-Rogissart, dans le 12e arrondissement de Paris, dans le quartier de Picpus.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Martha-Desrumaux est accessible par la ligne 1 à la station Reuilly - Diderot.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin prend une forme rectangulaire, de 3 223 m2, en cœur d'îlot, définie par les bâtiments de l'ancienne caserne de Reuilly.
 </t>
@@ -574,7 +590,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin reprend le prénom de Martha Desrumaux (1897-1982), figure du mouvement ouvrier et de la résistance intérieure française.
 </t>
@@ -605,7 +623,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain qu'occupe le jardin était précédemment la cour centrale de la caserne de Reuilly : la place d'armes, encadrée par un parking, et le mess. Celle-ci a été vendue à la ville de Paris et a fait l'objet d'une opération immobilière consistant en la réhabilitation des anciens bâtiments, reconvertis en logements, et la destruction de bâtiments plus récents, dont le mess. En revanche, le cœur d'îlot a été laissé libre pour y aménager cet espace vert. Le jardin ouvre en 2019.
 </t>
